--- a/app/src/main/res/raw/pre_registration_household_form.xlsx
+++ b/app/src/main/res/raw/pre_registration_household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
+    <workbookView xWindow="19590" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>group</t>
   </si>
@@ -66,6 +66,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -154,6 +157,15 @@
   </si>
   <si>
     <t>1.6. Date de Collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -203,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,6 +226,113 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -225,127 +344,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,14 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -382,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,11 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +633,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,30 +653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,8 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,169 +691,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1186,9 +1206,10 @@
     <col min="12" max="12" width="52.1428571428571" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1237,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1231,34 +1252,37 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1268,25 +1292,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1296,74 +1320,74 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1373,25 +1397,25 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1399,51 +1423,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" t="b">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="b">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>
@@ -1477,6 +1533,9 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -1505,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1542,35 +1601,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pre_registration_household_form.xlsx
+++ b/app/src/main/res/raw/pre_registration_household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -135,13 +135,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>1.5. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>1.5. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>1.5. Code de l'Enquêteur</t>
+    <t>Collected By Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -150,13 +150,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>1.6. Collected Date</t>
-  </si>
-  <si>
-    <t>1.6. Data da Visita</t>
-  </si>
-  <si>
-    <t>1.6. Date de Collecte</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de Collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -216,9 +216,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,7 +229,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,6 +296,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -251,30 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,81 +372,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -394,49 +394,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,138 +574,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -599,6 +599,86 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,30 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,6 +737,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -691,186 +762,188 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1188,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1237,7 +1310,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1252,13 +1325,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1281,8 +1354,8 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" t="b">
         <v>1</v>
       </c>
@@ -1309,8 +1382,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1337,8 +1410,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1359,72 +1432,72 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:14">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" t="b">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="b">
+      <c r="N6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="4" customFormat="1" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" t="b">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N7" t="b">
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:17">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="4"/>
@@ -1446,8 +1519,8 @@
       <c r="J8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="b">
         <v>1</v>
@@ -1458,48 +1531,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:14">
+      <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" t="b">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="N9" t="b">
+      <c r="N9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>

--- a/app/src/main/res/raw/pre_registration_household_form.xlsx
+++ b/app/src/main/res/raw/pre_registration_household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="13170" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -215,8 +215,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -228,34 +228,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,6 +236,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -272,97 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -371,9 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,181 +400,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,15 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,6 +685,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,30 +736,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -762,151 +744,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1500,16 +1500,12 @@
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1521,12 +1517,9 @@
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="4"/>
       <c r="N8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4" t="b">
         <v>1</v>
       </c>

--- a/app/src/main/res/raw/pre_registration_household_form.xlsx
+++ b/app/src/main/res/raw/pre_registration_household_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="7050" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>group</t>
   </si>
@@ -48,6 +48,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>1.1. Code de la Région parente</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የክልል ኮድ  </t>
+  </si>
+  <si>
     <t>regionName</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>1.2. Nom de la Région parente</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የክልል ስም  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
     <t>1.3. Code du Agrégat</t>
   </si>
   <si>
+    <t xml:space="preserve">1.3. የቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>householdName</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
     <t>1.4. Nom du Agrégat</t>
   </si>
   <si>
+    <t xml:space="preserve">1.4. የቤተሰቡ ስም  </t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -144,6 +159,9 @@
     <t>Code de l'Enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -159,6 +177,9 @@
     <t>Date de Collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -168,6 +189,9 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -180,6 +204,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t xml:space="preserve">ለመድረሻዎች የተፈቀደ መዳረሻ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -195,6 +222,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawPreHousehold</t>
   </si>
   <si>
@@ -205,6 +235,9 @@
   </si>
   <si>
     <t>Pré-enregistrer d'un nouvel Agrégat</t>
+  </si>
+  <si>
+    <t>ቤተሰብን ቀድሞ መመዝገብ</t>
   </si>
   <si>
     <t>a</t>
@@ -216,9 +249,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -226,6 +259,82 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -236,8 +345,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +370,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,103 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -400,13 +433,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,31 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,25 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,79 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +707,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,21 +742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,139 +798,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,16 +939,16 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -931,13 +964,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1275,14 +1321,15 @@
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="44.7238095238095" customWidth="1"/>
     <col min="9" max="10" width="32.4571428571429" customWidth="1"/>
-    <col min="11" max="11" width="21.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="52.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="27.2571428571429" customWidth="1"/>
+    <col min="12" max="12" width="21.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="52.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,247 +1372,277 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
       <c r="N2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:14">
+        <v>38</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:14">
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:15">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:17">
+      <c r="O7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="4" t="b">
+        <v>56</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="O8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="4" t="b">
+      <c r="R8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:14">
+    <row r="9" s="5" customFormat="1" spans="1:15">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="O9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1"/>
@@ -1615,7 +1692,7 @@
   <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1630,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1654,48 +1731,55 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="34.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
